--- a/cordexp/models/ipsl-wrf381p/cordexp_eur_11_ipsl_wrf381p_toplevel.xlsx
+++ b/cordexp/models/ipsl-wrf381p/cordexp_eur_11_ipsl_wrf381p_toplevel.xlsx
@@ -64,7 +64,7 @@
     <t>Further Info</t>
   </si>
   <si>
-    <t>https://es-doc.org/cordex</t>
+    <t>https://es-doc.org/cordexp</t>
   </si>
   <si>
     <t>Specialization Version</t>

--- a/cordexp/models/ipsl-wrf381p/cordexp_eur_11_ipsl_wrf381p_toplevel.xlsx
+++ b/cordexp/models/ipsl-wrf381p/cordexp_eur_11_ipsl_wrf381p_toplevel.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvautard\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
     <sheet name="2. Radiative Forcings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="551">
   <si>
     <t>ES-DOC CORDEX Model Documentation</t>
   </si>
@@ -1598,12 +1603,84 @@
   </si>
   <si>
     <t>cordex.toplevel.radiative_forcings.other.solar.additional_information</t>
+  </si>
+  <si>
+    <t>Institut Pierre-Simon Laplace</t>
+  </si>
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
+    <t>WRF381P has downscaled several GCMs</t>
+  </si>
+  <si>
+    <t>Several coupled models, regional climate model = WRF381P</t>
+  </si>
+  <si>
+    <t>WRF381P is a specific configuration, with a specific set of parameterizations of the Weather Research and Forecasting Model. WRF381P is based on the WRF 3.8.1 version.</t>
+  </si>
+  <si>
+    <t>WRF3.7.1 and old version is MM5</t>
+  </si>
+  <si>
+    <t>2-year simulation spin-up. The model is generally run by 20-year long time slices with overlapping 2-year periods</t>
+  </si>
+  <si>
+    <t>No spectral nudging used</t>
+  </si>
+  <si>
+    <t>https://www2.mmm.ucar.edu/wrf/users/</t>
+  </si>
+  <si>
+    <t>WRF V3.8.1</t>
+  </si>
+  <si>
+    <t>Fortran</t>
+  </si>
+  <si>
+    <t>WRF was not tuned for its parameters. However a number of parameterizations were tested with low-resolution (50 km) and 5-year time periods and checked vs. E-OBS observations of temperature and precipitations. The best combination of parameterizations were selected.</t>
+  </si>
+  <si>
+    <t>Wind, temperature and specific humidity</t>
+  </si>
+  <si>
+    <t>6 hours</t>
+  </si>
+  <si>
+    <t>Reanalysis</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>reanalysis</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>standard in WRF</t>
+  </si>
+  <si>
+    <t>RCP8.5 CMIP5</t>
+  </si>
+  <si>
+    <t>yearly</t>
+  </si>
+  <si>
+    <t>climatology</t>
+  </si>
+  <si>
+    <t>CMIP5 RCP8.5</t>
+  </si>
+  <si>
+    <t>CMIP5 yearly forcing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -1800,11 +1877,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1846,7 +1931,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1878,9 +1963,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1912,6 +1998,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2087,24 +2174,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2112,7 +2199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2120,7 +2207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,7 +2215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2136,7 +2223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2144,12 +2231,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20.25">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="18">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2157,7 +2244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2165,7 +2252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="18">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -2173,7 +2260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="18">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2181,13 +2268,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="20.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="20.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -2203,19 +2290,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="80.7109375" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -2226,7 +2315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -2242,7 +2331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
@@ -2250,11 +2339,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="12" spans="1:2">
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -2270,7 +2363,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
@@ -2278,7 +2371,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
@@ -2300,12 +2393,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD376"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH376"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="B371" sqref="B371"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="150.7109375" customWidth="1"/>
@@ -2346,7 +2441,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -2399,8 +2496,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+    <row r="16" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
@@ -2435,7 +2534,9 @@
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AA24" s="6" t="s">
         <v>58</v>
       </c>
@@ -2473,8 +2574,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="178" customHeight="1">
-      <c r="B29" s="11"/>
+    <row r="29" spans="1:30" ht="177.95" customHeight="1">
+      <c r="B29" s="11" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
       <c r="A32" s="12" t="s">
@@ -2509,7 +2612,9 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
+      <c r="B37" s="11">
+        <v>2016</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
@@ -2531,7 +2636,9 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="B41" s="11"/>
+      <c r="B41" s="11" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
@@ -2557,7 +2664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="178" customHeight="1">
+    <row r="46" spans="1:3" ht="177.95" customHeight="1">
       <c r="B46" s="11"/>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
@@ -2593,7 +2700,9 @@
       </c>
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
+      <c r="B54" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="AA54" s="6" t="s">
         <v>87</v>
       </c>
@@ -2634,7 +2743,9 @@
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
-      <c r="B62" s="11"/>
+      <c r="B62" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="AA62" s="6" t="s">
         <v>95</v>
       </c>
@@ -2682,8 +2793,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="178" customHeight="1">
-      <c r="B71" s="11"/>
+    <row r="71" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B71" s="11" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
@@ -2722,8 +2835,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="178" customHeight="1">
-      <c r="B80" s="11"/>
+    <row r="80" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B80" s="11" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
       <c r="A83" s="12" t="s">
@@ -2758,7 +2873,9 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="B88" s="11"/>
+      <c r="B88" s="11" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
@@ -2780,7 +2897,9 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="B92" s="11"/>
+      <c r="B92" s="11" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
@@ -2807,7 +2926,9 @@
       </c>
     </row>
     <row r="97" spans="1:34" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
+      <c r="B97" s="11" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="99" spans="1:34" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
@@ -2914,7 +3035,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="178" customHeight="1">
+    <row r="114" spans="1:3" ht="177.95" customHeight="1">
       <c r="B114" s="11"/>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
@@ -2954,7 +3075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="178" customHeight="1">
+    <row r="123" spans="1:3" ht="177.95" customHeight="1">
       <c r="B123" s="11"/>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -3083,8 +3204,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="178" customHeight="1">
-      <c r="B148" s="11"/>
+    <row r="148" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B148" s="11" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
@@ -3221,8 +3344,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="178" customHeight="1">
-      <c r="B175" s="11"/>
+    <row r="175" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B175" s="11" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="177" spans="1:3" ht="24" customHeight="1">
       <c r="A177" s="9" t="s">
@@ -3248,8 +3373,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="178" customHeight="1">
-      <c r="B180" s="11"/>
+    <row r="180" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B180" s="11" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="182" spans="1:3" ht="24" customHeight="1">
       <c r="A182" s="9" t="s">
@@ -3275,7 +3402,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="178" customHeight="1">
+    <row r="185" spans="1:3" ht="177.95" customHeight="1">
       <c r="B185" s="11"/>
     </row>
     <row r="187" spans="1:3" ht="24" customHeight="1">
@@ -3302,7 +3429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="178" customHeight="1">
+    <row r="190" spans="1:3" ht="177.95" customHeight="1">
       <c r="B190" s="11"/>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
@@ -3342,8 +3469,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="178" customHeight="1">
-      <c r="B199" s="11"/>
+    <row r="199" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B199" s="11" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="201" spans="1:3" ht="24" customHeight="1">
       <c r="A201" s="9" t="s">
@@ -3369,8 +3498,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="178" customHeight="1">
-      <c r="B204" s="11"/>
+    <row r="204" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B204" s="11" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="206" spans="1:3" ht="24" customHeight="1">
       <c r="A206" s="9" t="s">
@@ -3396,7 +3527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="178" customHeight="1">
+    <row r="209" spans="1:3" ht="177.95" customHeight="1">
       <c r="B209" s="11"/>
     </row>
     <row r="211" spans="1:3" ht="24" customHeight="1">
@@ -3423,7 +3554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="178" customHeight="1">
+    <row r="214" spans="1:3" ht="177.95" customHeight="1">
       <c r="B214" s="11"/>
     </row>
     <row r="217" spans="1:3" ht="24" customHeight="1">
@@ -3463,8 +3594,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="178" customHeight="1">
-      <c r="B223" s="11"/>
+    <row r="223" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B223" s="11" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="225" spans="1:3" ht="24" customHeight="1">
       <c r="A225" s="9" t="s">
@@ -3490,8 +3623,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="178" customHeight="1">
-      <c r="B228" s="11"/>
+    <row r="228" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B228" s="11" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="230" spans="1:3" ht="24" customHeight="1">
       <c r="A230" s="9" t="s">
@@ -3517,8 +3652,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="178" customHeight="1">
-      <c r="B233" s="11"/>
+    <row r="233" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B233" s="11" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="235" spans="1:3" ht="24" customHeight="1">
       <c r="A235" s="9" t="s">
@@ -3544,8 +3681,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="178" customHeight="1">
-      <c r="B238" s="11"/>
+    <row r="238" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B238" s="11" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="240" spans="1:3" ht="24" customHeight="1">
       <c r="A240" s="9" t="s">
@@ -3571,7 +3710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="178" customHeight="1">
+    <row r="243" spans="1:3" ht="177.95" customHeight="1">
       <c r="B243" s="11"/>
     </row>
     <row r="246" spans="1:3" ht="24" customHeight="1">
@@ -3611,8 +3750,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="178" customHeight="1">
-      <c r="B252" s="11"/>
+    <row r="252" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B252" s="11" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="254" spans="1:3" ht="24" customHeight="1">
       <c r="A254" s="9" t="s">
@@ -3638,8 +3779,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="178" customHeight="1">
-      <c r="B257" s="11"/>
+    <row r="257" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B257" s="11" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="259" spans="1:3" ht="24" customHeight="1">
       <c r="A259" s="9" t="s">
@@ -3665,7 +3808,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="178" customHeight="1">
+    <row r="262" spans="1:3" ht="177.95" customHeight="1">
       <c r="B262" s="11"/>
     </row>
     <row r="265" spans="1:3" ht="24" customHeight="1">
@@ -3705,8 +3848,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="178" customHeight="1">
-      <c r="B271" s="11"/>
+    <row r="271" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B271" s="11" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="273" spans="1:3" ht="24" customHeight="1">
       <c r="A273" s="9" t="s">
@@ -3732,8 +3877,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="178" customHeight="1">
-      <c r="B276" s="11"/>
+    <row r="276" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B276" s="11" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="278" spans="1:3" ht="24" customHeight="1">
       <c r="A278" s="9" t="s">
@@ -3759,7 +3906,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="178" customHeight="1">
+    <row r="281" spans="1:3" ht="177.95" customHeight="1">
       <c r="B281" s="11"/>
     </row>
     <row r="284" spans="1:3" ht="24" customHeight="1">
@@ -3799,7 +3946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="178" customHeight="1">
+    <row r="290" spans="1:3" ht="177.95" customHeight="1">
       <c r="B290" s="11"/>
     </row>
     <row r="292" spans="1:3" ht="24" customHeight="1">
@@ -3826,8 +3973,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="178" customHeight="1">
-      <c r="B295" s="11"/>
+    <row r="295" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B295" s="11" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="297" spans="1:3" ht="24" customHeight="1">
       <c r="A297" s="9" t="s">
@@ -3853,7 +4002,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="178" customHeight="1">
+    <row r="300" spans="1:3" ht="177.95" customHeight="1">
       <c r="B300" s="11"/>
     </row>
     <row r="303" spans="1:3" ht="24" customHeight="1">
@@ -3893,7 +4042,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="178" customHeight="1">
+    <row r="309" spans="1:3" ht="177.95" customHeight="1">
       <c r="B309" s="11"/>
     </row>
     <row r="311" spans="1:3" ht="24" customHeight="1">
@@ -3920,7 +4069,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="178" customHeight="1">
+    <row r="314" spans="1:3" ht="177.95" customHeight="1">
       <c r="B314" s="11"/>
     </row>
     <row r="316" spans="1:3" ht="24" customHeight="1">
@@ -3947,7 +4096,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="178" customHeight="1">
+    <row r="319" spans="1:3" ht="177.95" customHeight="1">
       <c r="B319" s="11"/>
     </row>
     <row r="322" spans="1:3" ht="24" customHeight="1">
@@ -3987,8 +4136,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="178" customHeight="1">
-      <c r="B328" s="11"/>
+    <row r="328" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B328" s="11" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="330" spans="1:3" ht="24" customHeight="1">
       <c r="A330" s="9" t="s">
@@ -4014,8 +4165,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="178" customHeight="1">
-      <c r="B333" s="11"/>
+    <row r="333" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B333" s="11" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="335" spans="1:3" ht="24" customHeight="1">
       <c r="A335" s="9" t="s">
@@ -4041,7 +4194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="178" customHeight="1">
+    <row r="338" spans="1:3" ht="177.95" customHeight="1">
       <c r="B338" s="11"/>
     </row>
     <row r="341" spans="1:3" ht="24" customHeight="1">
@@ -4081,7 +4234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="178" customHeight="1">
+    <row r="347" spans="1:3" ht="177.95" customHeight="1">
       <c r="B347" s="11"/>
     </row>
     <row r="349" spans="1:3" ht="24" customHeight="1">
@@ -4108,8 +4261,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="178" customHeight="1">
-      <c r="B352" s="11"/>
+    <row r="352" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B352" s="11" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="354" spans="1:3" ht="24" customHeight="1">
       <c r="A354" s="9" t="s">
@@ -4135,7 +4290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="178" customHeight="1">
+    <row r="357" spans="1:3" ht="177.95" customHeight="1">
       <c r="B357" s="11"/>
     </row>
     <row r="360" spans="1:3" ht="24" customHeight="1">
@@ -4175,7 +4330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="178" customHeight="1">
+    <row r="366" spans="1:3" ht="177.95" customHeight="1">
       <c r="B366" s="11"/>
     </row>
     <row r="368" spans="1:3" ht="24" customHeight="1">
@@ -4202,8 +4357,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="178" customHeight="1">
-      <c r="B371" s="11"/>
+    <row r="371" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B371" s="11" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="373" spans="1:3" ht="24" customHeight="1">
       <c r="A373" s="9" t="s">
@@ -4229,7 +4386,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="178" customHeight="1">
+    <row r="376" spans="1:3" ht="177.95" customHeight="1">
       <c r="B376" s="11"/>
     </row>
   </sheetData>
@@ -4261,12 +4418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD299"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG299"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="B294" sqref="B294"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="150.7109375" customWidth="1"/>
@@ -4307,7 +4466,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -4333,8 +4494,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
@@ -4374,7 +4537,9 @@
       </c>
     </row>
     <row r="20" spans="1:33" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>549</v>
+      </c>
       <c r="AA20" s="6" t="s">
         <v>354</v>
       </c>
@@ -4421,7 +4586,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="178" customHeight="1">
+    <row r="25" spans="1:33" ht="177.95" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
@@ -4462,7 +4627,9 @@
       </c>
     </row>
     <row r="34" spans="1:33" ht="24" customHeight="1">
-      <c r="B34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>356</v>
+      </c>
       <c r="AA34" s="6" t="s">
         <v>354</v>
       </c>
@@ -4509,8 +4676,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="178" customHeight="1">
-      <c r="B39" s="11"/>
+    <row r="39" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B39" s="11" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="42" spans="1:33" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
@@ -4550,7 +4719,9 @@
       </c>
     </row>
     <row r="48" spans="1:33" ht="24" customHeight="1">
-      <c r="B48" s="11"/>
+      <c r="B48" s="11" t="s">
+        <v>356</v>
+      </c>
       <c r="AA48" s="6" t="s">
         <v>354</v>
       </c>
@@ -4597,8 +4768,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="178" customHeight="1">
-      <c r="B53" s="11"/>
+    <row r="53" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B53" s="11" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="56" spans="1:33" ht="24" customHeight="1">
       <c r="A56" s="12" t="s">
@@ -4638,7 +4811,9 @@
       </c>
     </row>
     <row r="62" spans="1:33" ht="24" customHeight="1">
-      <c r="B62" s="11"/>
+      <c r="B62" s="11" t="s">
+        <v>356</v>
+      </c>
       <c r="AA62" s="6" t="s">
         <v>354</v>
       </c>
@@ -4685,8 +4860,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="178" customHeight="1">
-      <c r="B67" s="11"/>
+    <row r="67" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B67" s="11" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="70" spans="1:33" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
@@ -4726,7 +4903,9 @@
       </c>
     </row>
     <row r="76" spans="1:33" ht="24" customHeight="1">
-      <c r="B76" s="11"/>
+      <c r="B76" s="11" t="s">
+        <v>356</v>
+      </c>
       <c r="AA76" s="6" t="s">
         <v>354</v>
       </c>
@@ -4773,7 +4952,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:33" ht="178" customHeight="1">
+    <row r="81" spans="1:33" ht="177.95" customHeight="1">
       <c r="B81" s="11"/>
     </row>
     <row r="84" spans="1:33" ht="24" customHeight="1">
@@ -4814,7 +4993,9 @@
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
-      <c r="B90" s="11"/>
+      <c r="B90" s="11" t="s">
+        <v>356</v>
+      </c>
       <c r="AA90" s="6" t="s">
         <v>354</v>
       </c>
@@ -4898,7 +5079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:33" ht="178" customHeight="1">
+    <row r="99" spans="1:33" ht="177.95" customHeight="1">
       <c r="B99" s="11"/>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
@@ -4939,7 +5120,9 @@
       </c>
     </row>
     <row r="108" spans="1:33" ht="24" customHeight="1">
-      <c r="B108" s="11"/>
+      <c r="B108" s="11" t="s">
+        <v>359</v>
+      </c>
       <c r="AA108" s="6" t="s">
         <v>354</v>
       </c>
@@ -4986,7 +5169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:33" ht="178" customHeight="1">
+    <row r="113" spans="1:33" ht="177.95" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="116" spans="1:33" ht="24" customHeight="1">
@@ -5027,7 +5210,9 @@
       </c>
     </row>
     <row r="122" spans="1:33" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
+      <c r="B122" s="11" t="s">
+        <v>359</v>
+      </c>
       <c r="AA122" s="6" t="s">
         <v>354</v>
       </c>
@@ -5074,7 +5259,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="178" customHeight="1">
+    <row r="127" spans="1:33" ht="177.95" customHeight="1">
       <c r="B127" s="11"/>
     </row>
     <row r="130" spans="1:33" ht="24" customHeight="1">
@@ -5115,7 +5300,9 @@
       </c>
     </row>
     <row r="136" spans="1:33" ht="24" customHeight="1">
-      <c r="B136" s="11"/>
+      <c r="B136" s="11" t="s">
+        <v>359</v>
+      </c>
       <c r="AA136" s="6" t="s">
         <v>354</v>
       </c>
@@ -5162,7 +5349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:33" ht="178" customHeight="1">
+    <row r="141" spans="1:33" ht="177.95" customHeight="1">
       <c r="B141" s="11"/>
     </row>
     <row r="144" spans="1:33" ht="24" customHeight="1">
@@ -5203,7 +5390,9 @@
       </c>
     </row>
     <row r="150" spans="1:33" ht="24" customHeight="1">
-      <c r="B150" s="11"/>
+      <c r="B150" s="11" t="s">
+        <v>359</v>
+      </c>
       <c r="AA150" s="6" t="s">
         <v>354</v>
       </c>
@@ -5250,7 +5439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:33" ht="178" customHeight="1">
+    <row r="155" spans="1:33" ht="177.95" customHeight="1">
       <c r="B155" s="11"/>
     </row>
     <row r="158" spans="1:33" ht="24" customHeight="1">
@@ -5360,7 +5549,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="173" spans="1:33" ht="178" customHeight="1">
+    <row r="173" spans="1:33" ht="177.95" customHeight="1">
       <c r="B173" s="11"/>
     </row>
     <row r="176" spans="1:33" ht="24" customHeight="1">
@@ -5492,7 +5681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="195" spans="1:33" ht="178" customHeight="1">
+    <row r="195" spans="1:33" ht="177.95" customHeight="1">
       <c r="B195" s="11"/>
     </row>
     <row r="198" spans="1:33" ht="24" customHeight="1">
@@ -5580,7 +5769,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="1:33" ht="178" customHeight="1">
+    <row r="209" spans="1:33" ht="177.95" customHeight="1">
       <c r="B209" s="11"/>
     </row>
     <row r="212" spans="1:33" ht="24" customHeight="1">
@@ -5748,7 +5937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="231" spans="1:33" ht="178" customHeight="1">
+    <row r="231" spans="1:33" ht="177.95" customHeight="1">
       <c r="B231" s="11"/>
     </row>
     <row r="234" spans="1:33" ht="24" customHeight="1">
@@ -5789,7 +5978,9 @@
       </c>
     </row>
     <row r="240" spans="1:33" ht="24" customHeight="1">
-      <c r="B240" s="11"/>
+      <c r="B240" s="11" t="s">
+        <v>359</v>
+      </c>
       <c r="AA240" s="6" t="s">
         <v>354</v>
       </c>
@@ -5916,7 +6107,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="253" spans="1:32" ht="178" customHeight="1">
+    <row r="253" spans="1:32" ht="177.95" customHeight="1">
       <c r="B253" s="11"/>
     </row>
     <row r="256" spans="1:32" ht="24" customHeight="1">
@@ -5957,7 +6148,9 @@
       </c>
     </row>
     <row r="262" spans="1:33" ht="24" customHeight="1">
-      <c r="B262" s="11"/>
+      <c r="B262" s="11" t="s">
+        <v>359</v>
+      </c>
       <c r="AA262" s="6" t="s">
         <v>354</v>
       </c>
@@ -6004,7 +6197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="267" spans="1:33" ht="178" customHeight="1">
+    <row r="267" spans="1:33" ht="177.95" customHeight="1">
       <c r="B267" s="11"/>
     </row>
     <row r="270" spans="1:33" ht="24" customHeight="1">
@@ -6045,7 +6238,9 @@
       </c>
     </row>
     <row r="276" spans="1:33" ht="24" customHeight="1">
-      <c r="B276" s="11"/>
+      <c r="B276" s="11" t="s">
+        <v>359</v>
+      </c>
       <c r="AA276" s="6" t="s">
         <v>354</v>
       </c>
@@ -6114,7 +6309,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="285" spans="1:33" ht="178" customHeight="1">
+    <row r="285" spans="1:33" ht="177.95" customHeight="1">
       <c r="B285" s="11"/>
     </row>
     <row r="288" spans="1:33" ht="24" customHeight="1">
@@ -6199,14 +6394,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="299" spans="1:32" ht="178" customHeight="1">
+    <row r="299" spans="1:32" ht="177.95" customHeight="1">
       <c r="B299" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="27">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>AA20:AG20</formula1>
-    </dataValidation>
+  <dataValidations count="26">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
       <formula1>AA34:AG34</formula1>
     </dataValidation>
